--- a/data/3FEB_25_26_j1/clutch_lineups_25_26_3FEB.xlsx
+++ b/data/3FEB_25_26_j1/clutch_lineups_25_26_3FEB.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,27 +558,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2487579</t>
+          <t>2487582</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>F. SANTAMARIA LEON | J. AYALA AYLLÓN | M. BATLLE BERNARDO | M. DEL VALLE REGALADO | S. RODRIGUEZ GREGORIO</t>
+          <t>A. OLMEDO VELASCO | C. CUESTA DE SANTOS | E. PEREZ BERNABEU | J. LOBATO ANDRADE | M. SANCHEZ SANCHEZ</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>0.12</v>
+        <v>0.57</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -590,11 +590,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>200</v>
+        <v>106.38</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
@@ -604,16 +604,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -631,57 +631,57 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET vs LUJISA GUADALAJARA BASKET</t>
+          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2487579</t>
+          <t>2487582</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LUJISA GUADALAJARA BASKET</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A. ARMSTRONG | B. OJEDA OCHOA | E. CALVO SALVE | L. VALERA VILLEGAS | M. DIALLO</t>
+          <t>A. OLMEDO VELASCO | E. BOADA MONTESDEOCA | E. PEREZ BERNABEU | J. LOBATO ANDRADE | M. SANCHEZ SANCHEZ</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -711,73 +711,69 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>GRUPO EGIDO PINTOBASKET vs LUJISA GUADALAJARA BASKET</t>
+          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2487580</t>
+          <t>2487582</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A. APARICIO IZQUIERDO | D. RODRIGUEZ GARCIA | I. REBERGEN | M. NIANG | P. RODRIGUEZ RIVERO</t>
+          <t>A. OLMEDO VELASCO | C. CUESTA DE SANTOS | E. BOADA MONTESDEOCA | E. PEREZ BERNABEU | I. BLANCO-ARGIBAY GONZALEZ</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>117</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.76</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.88</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>159.57</v>
-      </c>
-      <c r="L4" t="n">
-        <v>180.41</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-20.84</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -795,76 +791,70 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA vs REAL CANOE N.C.</t>
+          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2487580</t>
+          <t>2487582</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>ADC BOADILLA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A. APARICIO IZQUIERDO | D. OJEDA DAVILA | D. RODRIGUEZ GARCIA | I. REBERGEN | P. RODRIGUEZ RIVERO</t>
+          <t>A. OLMEDO VELASCO | C. CUESTA DE SANTOS | E. BOADA MONTESDEOCA | E. PEREZ BERNABEU | M. SANCHEZ SANCHEZ</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.37</v>
+        <v>0.03</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>104.17</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-104.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -879,54 +869,58 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA vs REAL CANOE N.C.</t>
+          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2487580</t>
+          <t>2487582</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA</t>
+          <t>BALONCESTO TELDE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A. APARICIO IZQUIERDO | A. JIMENEZ FERNANDEZ | D. RODRIGUEZ GARCIA | I. REBERGEN | P. RODRIGUEZ RIVERO</t>
+          <t>A. MARTIN GONZALEZ | A. REDONDO ALVAREZ DE SOTOMAYOR | A. SANTANA OJEDA | I. MENCARA JIMENEZ | J. JIMENEZ HERNANDEZ</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.88</v>
       </c>
       <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0.88</v>
+        <v>1.88</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="K6" t="n">
-        <v>227.27</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+        <v>212.77</v>
+      </c>
+      <c r="L6" t="n">
+        <v>106.38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>106.38</v>
+      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
@@ -935,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -959,61 +953,55 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA vs REAL CANOE N.C.</t>
+          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2487580</t>
+          <t>2487582</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>REAL CANOE N.C.</t>
+          <t>BALONCESTO TELDE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D. MANZANERO CAMACHO | E. MARTINEZ ALVAREZ | J. LAPASTORA ARACIL | L. GARCIA LARRACHE SEGURA | M. HERMOSO ALCUBILLA</t>
+          <t>A. MARTIN GONZALEZ | A. SANTANA OJEDA | I. MENCARA JIMENEZ | J. JIMENEZ HERNANDEZ | P. SÁNCHEZ GUTIERREZ</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>1.17</v>
+        <v>0.03</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>212.77</v>
-      </c>
-      <c r="L7" t="n">
-        <v>138.89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>73.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1022,16 +1010,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1042,734 +1030,6 @@
         <v>1</v>
       </c>
       <c r="X7" t="inlineStr">
-        <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA vs REAL CANOE N.C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2487580</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>REAL CANOE N.C.</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>D. MANZANERO CAMACHO | E. MARTINEZ ALVAREZ | J. LAPASTORA ARACIL | L. GARCIA LARRACHE SEGURA | N. LASUNCION MARIBLANCA</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>38</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K8" t="n">
-        <v>300</v>
-      </c>
-      <c r="L8" t="n">
-        <v>227.27</v>
-      </c>
-      <c r="M8" t="n">
-        <v>72.73</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W8" t="n">
-        <v>1</v>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA vs REAL CANOE N.C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2487580</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>REAL CANOE N.C.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E. MARTINEZ ALVAREZ | J. LAPASTORA ARACIL | L. GARCIA LARRACHE SEGURA | M. HERMOSO ALCUBILLA | M. KREISLER LORENTE</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K9" t="n">
-        <v>104.17</v>
-      </c>
-      <c r="L9" t="n">
-        <v>69.44</v>
-      </c>
-      <c r="M9" t="n">
-        <v>34.72</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA vs REAL CANOE N.C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2487580</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>REAL CANOE N.C.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>D. MANZANERO CAMACHO | E. MARTINEZ ALVAREZ | J. LAPASTORA ARACIL | M. HERMOSO ALCUBILLA | N. LASUNCION MARIBLANCA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W10" t="n">
-        <v>1</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>C. D. MENSAJERO ISLA DE LA PALMA vs REAL CANOE N.C.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2487582</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ADC BOADILLA</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A. OLMEDO VELASCO | C. CUESTA DE SANTOS | E. PEREZ BERNABEU | J. LOBATO ANDRADE | M. SANCHEZ SANCHEZ</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>34</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>106.38</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2487582</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ADC BOADILLA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A. OLMEDO VELASCO | E. BOADA MONTESDEOCA | E. PEREZ BERNABEU | J. LOBATO ANDRADE | M. SANCHEZ SANCHEZ</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>16</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2487582</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ADC BOADILLA</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A. OLMEDO VELASCO | C. CUESTA DE SANTOS | E. BOADA MONTESDEOCA | E. PEREZ BERNABEU | I. BLANCO-ARGIBAY GONZALEZ</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>200</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W13" t="n">
-        <v>1</v>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2487582</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ADC BOADILLA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A. OLMEDO VELASCO | C. CUESTA DE SANTOS | E. BOADA MONTESDEOCA | E. PEREZ BERNABEU | M. SANCHEZ SANCHEZ</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W14" t="n">
-        <v>1</v>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2487582</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BALONCESTO TELDE</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>A. MARTIN GONZALEZ | A. REDONDO ALVAREZ DE SOTOMAYOR | A. SANTANA OJEDA | I. MENCARA JIMENEZ | J. JIMENEZ HERNANDEZ</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>53</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="K15" t="n">
-        <v>212.77</v>
-      </c>
-      <c r="L15" t="n">
-        <v>106.38</v>
-      </c>
-      <c r="M15" t="n">
-        <v>106.38</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W15" t="n">
-        <v>1</v>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>BALONCESTO TELDE vs ADC BOADILLA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2487582</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BALONCESTO TELDE</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A. MARTIN GONZALEZ | A. SANTANA OJEDA | I. MENCARA JIMENEZ | J. JIMENEZ HERNANDEZ | P. SÁNCHEZ GUTIERREZ</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Liga Regular "B-B"</t>
-        </is>
-      </c>
-      <c r="W16" t="n">
-        <v>1</v>
-      </c>
-      <c r="X16" t="inlineStr">
         <is>
           <t>BALONCESTO TELDE vs ADC BOADILLA</t>
         </is>
